--- a/biology/Médecine/Faculté_de_médecine_de_l'Université_McGill/Faculté_de_médecine_de_l'Université_McGill.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_de_l'Université_McGill/Faculté_de_médecine_de_l'Université_McGill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de médecine de l'Université McGill a été établie en 1823 en tant qu' Institution médicale de Montréal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1829, elle est devenue la première faculté active du McGill College, ainsi que la première faculté de médecine au Canada[1]. William Leslie Logie a été le premier étudiant à recevoir un diplôme de médecine au Canada, et ce de l'Université McGill, toutes disciplines confondues, en 1833[2].
-La Faculté de médecine est notamment composée de six écoles : l'École de médecine, l'École des sciences infirmières Ingram, l'École de physiothérapie et d'ergothérapie, l'École des sciences de la communication humaine, l'École de santé des populations et de santé mondiale et l'École des sciences biomédicales[3]. Elle est également composée de plusieurs centres de recherche impliqués dans des études notamment sur la douleur, les neurosciences et la vieillesse. La majorité des sections non-cliniques de la Faculté sont localisées dans l'Édifice des sciences médicales McIntyre (en)[4]. Cet immeuble, qui est souvent surnommé « The Beer Can » à cause de sa forme, est situé sur le campus du centre-ville de l'Université McGill, sur le côté sud du Mont Royal entre l'avenue des Pins et l'avenue du Docteur-Penfield[5].
-Le Centre universitaire de santé McGill (McGill University Health Centre), est affilié à la Faculté de médecine. Trois autres centres hospitaliers majeurs, l'Hôpital général juif, l'Hôpital Douglas[6] et l'Hôpital St. Mary's, sont aussi affiliés[1]. En avril 2006, le gouvernement du Québec a approuvé les plans pour commencer la première phase de construction du nouveau CUSM près de la station de métro Vendôme au site Glen. En mai 2015, l'hôpital Royal Victoria a été déménagé dans les nouveaux locaux du site Glen. Le déménagement de l'hôpital de Montréal pour enfant a eu lieu officiellement le 24 mai 2015[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1829, elle est devenue la première faculté active du McGill College, ainsi que la première faculté de médecine au Canada. William Leslie Logie a été le premier étudiant à recevoir un diplôme de médecine au Canada, et ce de l'Université McGill, toutes disciplines confondues, en 1833.
+La Faculté de médecine est notamment composée de six écoles : l'École de médecine, l'École des sciences infirmières Ingram, l'École de physiothérapie et d'ergothérapie, l'École des sciences de la communication humaine, l'École de santé des populations et de santé mondiale et l'École des sciences biomédicales. Elle est également composée de plusieurs centres de recherche impliqués dans des études notamment sur la douleur, les neurosciences et la vieillesse. La majorité des sections non-cliniques de la Faculté sont localisées dans l'Édifice des sciences médicales McIntyre (en). Cet immeuble, qui est souvent surnommé « The Beer Can » à cause de sa forme, est situé sur le campus du centre-ville de l'Université McGill, sur le côté sud du Mont Royal entre l'avenue des Pins et l'avenue du Docteur-Penfield.
+Le Centre universitaire de santé McGill (McGill University Health Centre), est affilié à la Faculté de médecine. Trois autres centres hospitaliers majeurs, l'Hôpital général juif, l'Hôpital Douglas et l'Hôpital St. Mary's, sont aussi affiliés. En avril 2006, le gouvernement du Québec a approuvé les plans pour commencer la première phase de construction du nouveau CUSM près de la station de métro Vendôme au site Glen. En mai 2015, l'hôpital Royal Victoria a été déménagé dans les nouveaux locaux du site Glen. Le déménagement de l'hôpital de Montréal pour enfant a eu lieu officiellement le 24 mai 2015.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Faculté de médecine de l'Université McGill est la seule faculté médicale universitaire canadienne à offrir le diplôme médical M.D., C.M. (MDCM), qui a une durée totale de quatre ans à temps plein[8]. Le MDCM est l'abréviation des termes latins Medicinae Doctor et Chirurgiae Magister signifiant « docteur en médecine et maître en chirurgie ». La Faculté de médecine offre également des programmes menant à l'obtention de deux diplômes, notamment le doctorat en médecine combiné à la maitrise en administration des affaires (M.D.-M.B.A.) et le doctorat en médecine jumelé au doctorat de recherche de troisième cycle (M.D.-Ph.D.)[9]. Il y a aussi un programme accéléré pour certains étudiants particulièrement motivés provenant du système collégiale du Québec. Ce programme consiste d'une année préparatoire avec un cursus en sciences biomédicales combinée à quatre ans d'études médicales pour obtenir les diplômes de médecine et de chirurgie (M.D., C.M.).
-Les admissions en médecine à l'Université McGill sont particulièrement compétitives[10],[11] ; les programmes médicaux sont hautement contingentés[12]. Pour les étudiants en médecines entrant en 2010, la moyenne des Grade Point Averages des étudiants de premier cycle était de 3.80 sur 4.00 et la note moyenne sur le Medical College Admission Test (MCAT) pour les étudiants internationaux était de 32.1 (85e-88e percentile)[13]. De plus, les étudiants sont non seulement évalués selon leurs notes mais également dans une série d'entrevues lors des admissions[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Faculté de médecine de l'Université McGill est la seule faculté médicale universitaire canadienne à offrir le diplôme médical M.D., C.M. (MDCM), qui a une durée totale de quatre ans à temps plein. Le MDCM est l'abréviation des termes latins Medicinae Doctor et Chirurgiae Magister signifiant « docteur en médecine et maître en chirurgie ». La Faculté de médecine offre également des programmes menant à l'obtention de deux diplômes, notamment le doctorat en médecine combiné à la maitrise en administration des affaires (M.D.-M.B.A.) et le doctorat en médecine jumelé au doctorat de recherche de troisième cycle (M.D.-Ph.D.). Il y a aussi un programme accéléré pour certains étudiants particulièrement motivés provenant du système collégiale du Québec. Ce programme consiste d'une année préparatoire avec un cursus en sciences biomédicales combinée à quatre ans d'études médicales pour obtenir les diplômes de médecine et de chirurgie (M.D., C.M.).
+Les admissions en médecine à l'Université McGill sont particulièrement compétitives, ; les programmes médicaux sont hautement contingentés. Pour les étudiants en médecines entrant en 2010, la moyenne des Grade Point Averages des étudiants de premier cycle était de 3.80 sur 4.00 et la note moyenne sur le Medical College Admission Test (MCAT) pour les étudiants internationaux était de 32.1 (85e-88e percentile). De plus, les étudiants sont non seulement évalués selon leurs notes mais également dans une série d'entrevues lors des admissions.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institution médicale de Montréal (Montreal Medical Institution) a été fondée en 1823 par quatre médecins, Andrew Fernando Holmes, John Stephenson, William Caldwell et William Robertson, tous diplômés de l'École de médecine de l'université d'Édimbourg. Ils étaient également impliqués dans la fondation de l'Hôpital général de Montréal[14],[15] En 1829, l'Institution médicale de Montréal est incorporée dans le McGill College, créant ainsi la première faculté du nouveau Collège, ainsi que la première faculté de médecine au Canada. À cette époque, les études médicales suivent une approche hautement didactique appelée « Edinburgh curriculum », consistant en deux cours de sciences biomédicales de base d'une durée de six mois chacun et deux ans d'externat (« walking the wards ») à l'Hôpital général de Montréal[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institution médicale de Montréal (Montreal Medical Institution) a été fondée en 1823 par quatre médecins, Andrew Fernando Holmes, John Stephenson, William Caldwell et William Robertson, tous diplômés de l'École de médecine de l'université d'Édimbourg. Ils étaient également impliqués dans la fondation de l'Hôpital général de Montréal, En 1829, l'Institution médicale de Montréal est incorporée dans le McGill College, créant ainsi la première faculté du nouveau Collège, ainsi que la première faculté de médecine au Canada. À cette époque, les études médicales suivent une approche hautement didactique appelée « Edinburgh curriculum », consistant en deux cours de sciences biomédicales de base d'une durée de six mois chacun et deux ans d'externat (« walking the wards ») à l'Hôpital général de Montréal.
 Sir William Dawson, le directeur de McGill, est très efficace dans sa façon d'alimenter les ressources de la Faculté de médecine ; il a notamment encouragé les contributions de Thomas Roddick, Francis Shepherd, George Ross et Sir William Osler, qui ont tous joué un rôle important dans la transformation de l'École de médecine de l'ère victorienne en une des meilleures écoles de médecine du monde moderne. Osler, qui a reçu son MDCM de la Faculté de médecine de l'Université McGill en 1872, est devenu le cofondateur de l'actuelle École de médecine Johns-Hopkins (Johns-Hopkins School of Medicine) en 1893.
 </t>
         </is>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,21 +628,60 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sciences de base
-Anatomie et biologie cellulaire[16]
+          <t>Sciences de base</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anatomie et biologie cellulaire
 Biochimie
 Génie biomédical
 Épidémiologie et bio-statistique
 Médecine expérimentale
 Santé et sécurité au travail
 Génétique humaine
-Microbiologie et immunologie[17]
+Microbiologie et immunologie
 Pathologie
 Pharmacologie
 Physiologie
-Études sociales et humaines de la médecine
-Sciences cliniques
-Anesthésie
+Études sociales et humaines de la médecine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Départements et centres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sciences cliniques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Anesthésie
 Radiologie diagnostique
 Épidémiologie et bio-statistique
 Santé et sécurité au travail
@@ -632,21 +689,55 @@
 Génétique humaine
 Neurologie et neurochirurgie
 Gynécologie et obstétrique
-Centre de la reproduction du CUSM (McGill Reproductive Centre)[3]
+Centre de la reproduction du CUSM (McGill Reproductive Centre)
 Unité de gynécologie oncologique
 Oncologie
 Ophthalmologie
 Otolaryngologie
 Pathologie
 Pédiatrie
-Psychiatrie
-Centres de recherche
-Recherche osseuse et périodontale
+Psychiatrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Départements et centres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Centres de recherche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Recherche osseuse et périodontale
 Recherche sur la vieillesse
 Recherche sur le SIDA
 Unité de recherche sur l'anesthésie
 Recherche sur les cellules et organes artificiels
-Bio-informatique[18]
+Bio-informatique
 Unité d'éthique biomédicale
 Cancer
 Résistance de l'hôte
@@ -659,31 +750,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_de_l'Université_McGill</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Professeurs et anciens élèves</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Charles Drew, M.D., C.M. (1933) — médecin et professeur
 Laurent Duvernay-Tardif, M.D., C.M. (2018) — joueur de football américain (Chiefs de Kansas City)
